--- a/static/uploads/dataTest_with_error.xlsx
+++ b/static/uploads/dataTest_with_error.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nico-\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\YoProgramo\python\Api_FastAPI\exel_to_database\static\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{921CEFAB-D8DC-4807-8616-A151C6FDAE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED589BC-264A-4670-90D8-7AF94FE7E444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30675" yWindow="1995" windowWidth="21600" windowHeight="11835" xr2:uid="{FCE606B2-40F1-469F-A927-FD75F1CDBDAF}"/>
+    <workbookView xWindow="4875" yWindow="1515" windowWidth="21600" windowHeight="11835" xr2:uid="{FCE606B2-40F1-469F-A927-FD75F1CDBDAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>ID</t>
   </si>
@@ -39,27 +39,12 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Nico</t>
-  </si>
-  <si>
-    <t>Pozzer</t>
-  </si>
-  <si>
-    <t>nico@gmail.com</t>
-  </si>
-  <si>
     <t>Martin</t>
   </si>
   <si>
     <t>Ramirez</t>
   </si>
   <si>
-    <t>sdfsf@hotmail.com</t>
-  </si>
-  <si>
-    <t>tsdt@outlook.com.ar</t>
-  </si>
-  <si>
     <t>adri@gmail.com</t>
   </si>
   <si>
@@ -72,35 +57,77 @@
     <t>Ocampo</t>
   </si>
   <si>
-    <t>nico</t>
-  </si>
-  <si>
     <t>Phone</t>
   </si>
   <si>
-    <t>sdfs</t>
-  </si>
-  <si>
-    <t>sdfsd</t>
-  </si>
-  <si>
-    <t>fsdf</t>
-  </si>
-  <si>
-    <t>sdfsf</t>
-  </si>
-  <si>
-    <t>sdfsdfs</t>
-  </si>
-  <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>gh</t>
+  </si>
+  <si>
+    <t>Matias</t>
+  </si>
+  <si>
+    <t>mati22@outlook.com.ar</t>
+  </si>
+  <si>
+    <t>Ramiro</t>
+  </si>
+  <si>
+    <t>Sanchez</t>
+  </si>
+  <si>
+    <t>Romero</t>
+  </si>
+  <si>
+    <t>rami-78@outlook.com.ar</t>
+  </si>
+  <si>
+    <t>tincho77@hotmail.com</t>
+  </si>
+  <si>
+    <t>adri89@hotmail.com</t>
+  </si>
+  <si>
+    <t>Adrian</t>
+  </si>
+  <si>
+    <t>Nicolas</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
+    <t>Duarte</t>
+  </si>
+  <si>
+    <t>nico-po4@hotmail.com</t>
+  </si>
+  <si>
+    <t>tintin@outlook.com.ar</t>
+  </si>
+  <si>
+    <t>alan@gmail.com</t>
+  </si>
+  <si>
+    <t>more@hotmail.com</t>
+  </si>
+  <si>
+    <t>Morena</t>
+  </si>
+  <si>
+    <t>matincho@outlook.com.ar</t>
+  </si>
+  <si>
+    <t>nico95@outlook.com.ar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +139,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -149,16 +191,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -474,13 +519,13 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="26.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -497,7 +542,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -505,13 +550,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="E2">
         <v>123</v>
@@ -522,13 +567,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E3">
         <v>21412</v>
@@ -536,19 +581,19 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="E4">
-        <v>564</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -556,13 +601,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>342</v>
@@ -573,16 +618,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -590,30 +635,30 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="E7">
         <v>453453</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
+      <c r="A8" t="s">
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E8">
         <v>43534</v>
@@ -624,10 +669,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
         <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E9">
         <v>34534</v>
@@ -638,12 +686,12 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E10">
@@ -655,16 +703,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>34534</v>
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -672,19 +717,32 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E12">
         <v>634</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D12" r:id="rId1" xr:uid="{898BB9A4-7EFF-4AB6-A5B4-FC49A59E17D4}"/>
+    <hyperlink ref="D10" r:id="rId2" xr:uid="{99AF7138-E2FA-49DD-917E-E25CBDCC6BDA}"/>
+    <hyperlink ref="D11" r:id="rId3" xr:uid="{5E14FF77-6437-4793-B913-B48D6BBE4AD8}"/>
+    <hyperlink ref="D9" r:id="rId4" xr:uid="{1C6AB165-6D92-44B3-B1F9-C6B0AFB92CFD}"/>
+    <hyperlink ref="D8" r:id="rId5" xr:uid="{A03D9C25-38C7-41A0-90C7-A36D2F87D86D}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{812335B3-9916-40BE-B2E0-9B2654E95B25}"/>
+    <hyperlink ref="D6" r:id="rId7" xr:uid="{7018EDA3-86EA-4928-809E-9063CBC736FD}"/>
+    <hyperlink ref="D4" r:id="rId8" xr:uid="{1822FC40-8D6E-4CFC-881D-57AD2C5AF0C2}"/>
+    <hyperlink ref="D3" r:id="rId9" xr:uid="{3459446E-1568-4F33-BE39-1A5765B65AF6}"/>
+    <hyperlink ref="D2" r:id="rId10" xr:uid="{A29927D6-9CD0-45A7-B3DC-108486071F2D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/static/uploads/dataTest_with_error.xlsx
+++ b/static/uploads/dataTest_with_error.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\YoProgramo\python\Api_FastAPI\exel_to_database\static\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED589BC-264A-4670-90D8-7AF94FE7E444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DDDA62-2D50-4E93-8340-69F9ED4A6DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4875" yWindow="1515" windowWidth="21600" windowHeight="11835" xr2:uid="{FCE606B2-40F1-469F-A927-FD75F1CDBDAF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -48,9 +48,6 @@
     <t>adri@gmail.com</t>
   </si>
   <si>
-    <t>Adri</t>
-  </si>
-  <si>
     <t>Parra</t>
   </si>
   <si>
@@ -60,12 +57,6 @@
     <t>Phone</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>gh</t>
-  </si>
-  <si>
     <t>Matias</t>
   </si>
   <si>
@@ -108,9 +99,6 @@
     <t>tintin@outlook.com.ar</t>
   </si>
   <si>
-    <t>alan@gmail.com</t>
-  </si>
-  <si>
     <t>more@hotmail.com</t>
   </si>
   <si>
@@ -121,6 +109,12 @@
   </si>
   <si>
     <t>nico95@outlook.com.ar</t>
+  </si>
+  <si>
+    <t>sdfs</t>
+  </si>
+  <si>
+    <t>456456@</t>
   </si>
 </sst>
 </file>
@@ -195,12 +189,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -519,7 +514,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,7 +537,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -550,13 +545,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>123</v>
@@ -570,27 +565,27 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>21412</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>234</v>
@@ -601,10 +596,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -618,13 +613,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="E6">
         <v>234</v>
@@ -638,30 +633,30 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>453453</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
+      <c r="A8">
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>43534</v>
+        <v>4353</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -669,13 +664,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E9">
         <v>34534</v>
@@ -686,13 +681,13 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="E10">
         <v>3534</v>
@@ -706,24 +701,27 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E12">
         <v>634</v>
